--- a/history_payments_due.xlsx
+++ b/history_payments_due.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,528 +546,638 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Olena Matov</t>
+          <t>Olga Delcroix</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-0295-NEWTO</t>
+          <t>2025-0275-NEWTO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08/15/2025</t>
+          <t>07/24/2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1,680.00</t>
+          <t>1,620.00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Olga Kagan</t>
+          <t>Sangthip Chaichueathip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-0236-NEWTO</t>
+          <t>2025-0232-NEWTO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10/23/2025</t>
+          <t>07/20/2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>404.80</t>
+          <t>900.00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Karin Sharav Zalkind</t>
+          <t>Samantha Bullard</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-0009-NEWTO</t>
+          <t>2025-0241-NEWTO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>07/27/2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>517.00</t>
+          <t>900.00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rodyna Elhossary</t>
+          <t>Natasha Sky Babushkina</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-0004-NEWTO</t>
+          <t>2025-0240-NEWTO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>04/30/2025</t>
+          <t>07/27/2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1,290.00</t>
+          <t>800.00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kate Ploussios</t>
+          <t>Melissa Perez Capotosto</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-0080-NEWTO</t>
+          <t>2024-0300-NEWTO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12/23/2025</t>
+          <t>08/03/2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>420.00</t>
+          <t>350.00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Faith Chandler</t>
+          <t>Shree Ganguly</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-0383-NEWTO</t>
+          <t>2025-0305-NEWTO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12/20/2025</t>
+          <t>09/19/2025</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>365.00</t>
+          <t>900.00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anna Shaar</t>
+          <t>Olga Kagan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-0090-NEWTO</t>
+          <t>2025-0236-NEWTO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08/19/2025</t>
+          <t>10/23/2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>500.00</t>
+          <t>404.80</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Olga Delcroix</t>
+          <t>Karin Sharav Zalkind</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-0275-NEWTO</t>
+          <t>2025-0009-NEWTO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>07/24/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1,620.00</t>
+          <t>517.00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sangthip Chaichueathip</t>
+          <t>Rodyna Elhossary</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-0232-NEWTO</t>
+          <t>2025-0004-NEWTO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07/20/2025</t>
+          <t>04/30/2025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>900.00</t>
+          <t>1,290.00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Olga Kasparova</t>
+          <t>Olena Matov</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-0031-NEWTO</t>
+          <t>2025-0295-NEWTO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08/08/2025</t>
+          <t>08/15/2025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1,035.00</t>
+          <t>1,680.00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lisa Kantor</t>
+          <t>Stacy Connolly</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-0362-NEWTO</t>
+          <t>2025-0301-NEWTO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10/22/2025</t>
+          <t>01/11/2026</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>440.00</t>
+          <t>350.00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Alla Agamov</t>
+          <t>Kristine Vallila</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-0267-NEWTO</t>
+          <t>2025-0307-NEWTO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08/13/2025</t>
+          <t>08/22/2025</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>630.00</t>
+          <t>2,700.00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jamie Simons</t>
+          <t>June Ding</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-0377-NEWTO</t>
+          <t>2024-0324-NEWTO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>09/12/2025</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>495.00</t>
+          <t>533.50</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Melissa Perez Capotosto</t>
+          <t>Alisa Sokol</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-0300-NEWTO</t>
+          <t>2025-0271-NEWTO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08/03/2025</t>
+          <t>08/18/2025</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>350.00</t>
+          <t>640.00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Stacy Connolly</t>
+          <t>Donatella Bernardini</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-0301-NEWTO</t>
+          <t>2025-0257-NEWTO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/11/2026</t>
+          <t>01/06/2026</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>350.00</t>
+          <t>400.00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>June Ding</t>
+          <t>Katie Megrian</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-0324-NEWTO</t>
+          <t>2025-0064-NEWTO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09/12/2025</t>
+          <t>08/24/2025</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>533.50</t>
+          <t>465.00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Alisa Sokol</t>
+          <t>Anna Bograd</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-0271-NEWTO</t>
+          <t>2025-0317-NEWTO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08/18/2025</t>
+          <t>09/04/2025</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>640.00</t>
+          <t>2,400.00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Donatella Bernardini</t>
+          <t>Kari Corda</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-0257-NEWTO</t>
+          <t>2024-0146-NEWTO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/06/2026</t>
+          <t>12/27/2025</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>400.00</t>
+          <t>112.50</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Katie Megrian</t>
+          <t>Anna Shpigel</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-0064-NEWTO</t>
+          <t>2025-0316-NEWTO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08/24/2025</t>
+          <t>09/02/2025</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>465.00</t>
+          <t>2,400.00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kari Corda</t>
+          <t>Suzanne Johnston</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-0146-NEWTO</t>
+          <t>2024-0365-NEWTO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12/27/2025</t>
+          <t>10/27/2025</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>112.50</t>
+          <t>466.63</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Suzanne Johnston</t>
+          <t>MAERAV SHAHAL-SCHIFFER</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-0365-NEWTO</t>
+          <t>2025-0026-NEWTO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10/27/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>466.63</t>
+          <t>300.00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MAERAV SHAHAL-SCHIFFER</t>
+          <t>Kate Ploussios</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-0026-NEWTO</t>
+          <t>2025-0080-NEWTO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/04/2026</t>
+          <t>12/23/2025</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>300.00</t>
+          <t>420.00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Samantha Bullard</t>
+          <t>Faith Chandler</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-0241-NEWTO</t>
+          <t>2024-0383-NEWTO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>07/27/2025</t>
+          <t>01/20/2026</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>900.00</t>
+          <t>355.00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Natasha Sky Babushkina</t>
+          <t>Anna Shaar</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-0240-NEWTO</t>
+          <t>2024-0090-NEWTO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>07/27/2025</t>
+          <t>08/19/2025</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>800.00</t>
+          <t>500.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Stacey Suckerman</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-0303-NEWTO</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08/18/2025</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1,496.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Olga Kasparova</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-0031-NEWTO</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1,035.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Lisa Kantor</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-0362-NEWTO</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10/22/2025</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>440.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Alla Agamov</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-0267-NEWTO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>08/13/2025</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>630.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Jamie Simons</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-0377-NEWTO</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>495.00</t>
         </is>
       </c>
     </row>
